--- a/sangiinn_2025_cleaning.xlsx
+++ b/sangiinn_2025_cleaning.xlsx
@@ -6150,7 +6150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="20.25">
       <c r="A174" s="3" t="s">
         <v>13</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="20.25">
       <c r="A175" s="3" t="s">
         <v>13</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="20.25">
       <c r="A176" s="3" t="s">
         <v>13</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="20.25">
       <c r="A177" s="3" t="s">
         <v>13</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="20.25">
       <c r="A178" s="3" t="s">
         <v>13</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="20.25">
       <c r="A179" s="3" t="s">
         <v>8</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="20.25">
       <c r="A180" s="3" t="s">
         <v>13</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="20.25">
       <c r="A181" s="3" t="s">
         <v>13</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="20.25">
       <c r="A182" s="3" t="s">
         <v>8</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="20.25">
       <c r="A183" s="3" t="s">
         <v>13</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="20.25">
       <c r="A184" s="3" t="s">
         <v>13</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="20.25">
       <c r="A185" s="3" t="s">
         <v>13</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="20.25">
       <c r="A186" s="3" t="s">
         <v>13</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="20.25">
       <c r="A187" s="3" t="s">
         <v>8</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="20.25">
       <c r="A188" s="3" t="s">
         <v>13</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="20.25">
       <c r="A189" s="3" t="s">
         <v>13</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="20.25">
       <c r="A190" s="3" t="s">
         <v>13</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="20.25">
       <c r="A191" s="3" t="s">
         <v>13</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="20.25">
       <c r="A192" s="3" t="s">
         <v>8</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="20.25">
       <c r="A193" s="3" t="s">
         <v>13</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="20.25">
       <c r="A194" s="3" t="s">
         <v>13</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="20.25">
       <c r="A195" s="3" t="s">
         <v>13</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="20.25">
       <c r="A196" s="3" t="s">
         <v>8</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="20.25">
       <c r="A197" s="3" t="s">
         <v>13</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="20.25">
       <c r="A198" s="3" t="s">
         <v>13</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="20.25">
       <c r="A199" s="3" t="s">
         <v>8</v>
       </c>
